--- a/biology/Botanique/Poa_litorosa/Poa_litorosa.xlsx
+++ b/biology/Botanique/Poa_litorosa/Poa_litorosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa litorosa est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des îles sub-antarctiques d'Australie et de Nouvelle-Zélande.
 Ce sont des plantes herbacées, vivaces, rhizomateuses, aux rhizomes allongés, aux gaines coriaces à la base et aux tiges (chaumes) raides pouvant atteindre 180 cm de haut.
-L'inflorescence est une panicule contractée[2].
-Cette espèce se caractérise par un niveau de ploïdie très élevé (38x) avec un nombre de chromosomes 2n = 38x = 263 à 266 et une valeur C de 32 à 56 pg (2C)[3].
-C'est chez les Poaceae, l'espèce qui a le plus grand nombre de chromosomes[4].
+L'inflorescence est une panicule contractée.
+Cette espèce se caractérise par un niveau de ploïdie très élevé (38x) avec un nombre de chromosomes 2n = 38x = 263 à 266 et une valeur C de 32 à 56 pg (2C).
+C'est chez les Poaceae, l'espèce qui a le plus grand nombre de chromosomes.
 </t>
         </is>
       </c>
